--- a/RCN_por_edo.xlsx
+++ b/RCN_por_edo.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB53D9FF-5D2C-4FA5-97DF-8CE2286AE133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F358B9AD-4ADB-47D8-98DB-E675F69B3C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_1.2" sheetId="1" r:id="rId1"/>
+    <sheet name="C_11.3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/RCN_por_edo.xlsx
+++ b/RCN_por_edo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE01249-520E-429C-A1FA-4AAEB36042EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B498185-D055-41C3-874A-FAA94C3CC8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="53">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -187,6 +187,18 @@
   <si>
     <t>Actualización: mayo 2024.</t>
   </si>
+  <si>
+    <t>Libre</t>
+  </si>
+  <si>
+    <t>Cuota</t>
+  </si>
+  <si>
+    <t>Alimentadora</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
 </sst>
 </file>
 
@@ -314,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -347,7 +359,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -356,7 +368,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,13 +401,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -406,6 +410,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -460,7 +471,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C768A276-CF92-4DAD-90A8-678EA65FCE05}" name="Tabla1" displayName="Tabla1" ref="B4:H963" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C768A276-CF92-4DAD-90A8-678EA65FCE05}" name="Tabla1" displayName="Tabla1" ref="B4:H963" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="B4:H963" xr:uid="{C768A276-CF92-4DAD-90A8-678EA65FCE05}">
     <filterColumn colId="0">
       <filters>
@@ -764,25 +775,25 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -794,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E5" s="4">
         <v>101.24</v>
@@ -817,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
@@ -828,7 +839,7 @@
       <c r="G6" s="7">
         <v>0</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="7">
         <v>0</v>
       </c>
     </row>
@@ -840,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E7" s="4">
         <v>43.8</v>
@@ -863,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -874,7 +885,7 @@
       <c r="G8" s="7">
         <v>518</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="7">
         <v>0</v>
       </c>
     </row>
@@ -909,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E10" s="7">
         <v>191.23000000000002</v>
@@ -920,7 +931,7 @@
       <c r="G10" s="7">
         <v>0</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="7">
         <v>0</v>
       </c>
     </row>
@@ -932,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E11" s="4">
         <v>220.15600000000001</v>
@@ -955,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E12" s="7">
         <v>1.2</v>
@@ -966,7 +977,7 @@
       <c r="G12" s="7">
         <v>0</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="7">
         <v>0</v>
       </c>
     </row>
@@ -978,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -1012,7 +1023,7 @@
       <c r="G14" s="7">
         <v>0</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="7">
         <v>4283.5</v>
       </c>
     </row>
@@ -1024,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E15" s="4">
         <v>215.233</v>
@@ -1047,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E16" s="7">
         <v>0</v>
@@ -1058,7 +1069,7 @@
       <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="Q16" s="3"/>
@@ -1073,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -1099,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E18" s="7">
         <v>0</v>
@@ -1110,7 +1121,7 @@
       <c r="G18" s="7">
         <v>1000.12</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="7">
         <v>409.34</v>
       </c>
     </row>
@@ -1145,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E20" s="7">
         <v>133.97699999999998</v>
@@ -1156,7 +1167,7 @@
       <c r="G20" s="7">
         <v>0</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1168,7 +1179,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E21" s="4">
         <v>39.5</v>
@@ -1191,7 +1202,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E22" s="7">
         <v>0</v>
@@ -1202,7 +1213,7 @@
       <c r="G22" s="7">
         <v>0</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1214,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -1248,7 +1259,7 @@
       <c r="G24" s="7">
         <v>0</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="7">
         <v>133.19999999999999</v>
       </c>
     </row>
@@ -1260,7 +1271,7 @@
         <v>41</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E25" s="4">
         <v>483.01599999999996</v>
@@ -1283,7 +1294,7 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E26" s="7">
         <v>234.97000000000003</v>
@@ -1294,7 +1305,7 @@
       <c r="G26" s="7">
         <v>0</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1306,7 +1317,7 @@
         <v>41</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E27" s="4">
         <v>141.5</v>
@@ -1329,7 +1340,7 @@
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E28" s="7">
         <v>0</v>
@@ -1340,7 +1351,7 @@
       <c r="G28" s="7">
         <v>3745.3</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1375,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E30" s="7">
         <v>46.91</v>
@@ -1386,7 +1397,7 @@
       <c r="G30" s="7">
         <v>0</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1398,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E31" s="4">
         <v>64.739999999999995</v>
@@ -1421,7 +1432,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E32" s="7">
         <v>35.6</v>
@@ -1432,7 +1443,7 @@
       <c r="G32" s="7">
         <v>7.2</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1444,7 +1455,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -1478,7 +1489,7 @@
       <c r="G34" s="7">
         <v>27.4</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1490,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E35" s="4">
         <v>304.90999999999997</v>
@@ -1513,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E36" s="7">
         <v>0</v>
@@ -1524,7 +1535,7 @@
       <c r="G36" s="7">
         <v>0</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1536,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -1559,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E38" s="7">
         <v>0</v>
@@ -1570,7 +1581,7 @@
       <c r="G38" s="7">
         <v>15645.309999999989</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="7">
         <v>359.62</v>
       </c>
     </row>
@@ -1605,7 +1616,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E40" s="7">
         <v>492.16</v>
@@ -1616,7 +1627,7 @@
       <c r="G40" s="7">
         <v>0</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1628,7 +1639,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E41" s="4">
         <v>410.3</v>
@@ -1651,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E42" s="7">
         <v>11.21</v>
@@ -1662,7 +1673,7 @@
       <c r="G42" s="7">
         <v>0</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1674,7 +1685,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
@@ -1708,7 +1719,7 @@
       <c r="G44" s="7">
         <v>0</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1720,7 +1731,7 @@
         <v>42</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E45" s="4">
         <v>16.739999999999998</v>
@@ -1743,7 +1754,7 @@
         <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E46" s="7">
         <v>44.74</v>
@@ -1754,7 +1765,7 @@
       <c r="G46" s="7">
         <v>0</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1766,7 +1777,7 @@
         <v>42</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E47" s="4">
         <v>0</v>
@@ -1789,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E48" s="7">
         <v>0</v>
@@ -1800,7 +1811,7 @@
       <c r="G48" s="7">
         <v>0</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1835,7 +1846,7 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E50" s="7">
         <v>149.48000000000002</v>
@@ -1846,7 +1857,7 @@
       <c r="G50" s="7">
         <v>0</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1858,7 +1869,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E51" s="4">
         <v>332.42599999999999</v>
@@ -1881,7 +1892,7 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E52" s="7">
         <v>0</v>
@@ -1892,7 +1903,7 @@
       <c r="G52" s="7">
         <v>440.23</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H52" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1904,7 +1915,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E53" s="4">
         <v>0</v>
@@ -1938,7 +1949,7 @@
       <c r="G54" s="7">
         <v>30.18</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H54" s="7">
         <v>446.52</v>
       </c>
     </row>
@@ -1950,7 +1961,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E55" s="4">
         <v>203.07799999999995</v>
@@ -1973,7 +1984,7 @@
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E56" s="7">
         <v>288.56100000000004</v>
@@ -1984,7 +1995,7 @@
       <c r="G56" s="7">
         <v>0</v>
       </c>
-      <c r="H56" s="19">
+      <c r="H56" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1996,7 +2007,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E57" s="4">
         <v>214.2699999999999</v>
@@ -2019,7 +2030,7 @@
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E58" s="7">
         <v>0</v>
@@ -2030,7 +2041,7 @@
       <c r="G58" s="7">
         <v>6337.34</v>
       </c>
-      <c r="H58" s="19">
+      <c r="H58" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2065,7 +2076,7 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E60" s="7">
         <v>86.251000000000005</v>
@@ -2076,7 +2087,7 @@
       <c r="G60" s="7">
         <v>0</v>
       </c>
-      <c r="H60" s="19">
+      <c r="H60" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2088,7 +2099,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E61" s="4">
         <v>243.51</v>
@@ -2111,7 +2122,7 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E62" s="7">
         <v>0</v>
@@ -2122,7 +2133,7 @@
       <c r="G62" s="7">
         <v>0</v>
       </c>
-      <c r="H62" s="19">
+      <c r="H62" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2134,7 +2145,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E63" s="4">
         <v>0</v>
@@ -2168,7 +2179,7 @@
       <c r="G64" s="7">
         <v>0</v>
       </c>
-      <c r="H64" s="19">
+      <c r="H64" s="7">
         <v>6179.02</v>
       </c>
     </row>
@@ -2180,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E65" s="4">
         <v>292.57000000000005</v>
@@ -2203,7 +2214,7 @@
         <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E66" s="7">
         <v>499.56200000000001</v>
@@ -2214,7 +2225,7 @@
       <c r="G66" s="7">
         <v>0</v>
       </c>
-      <c r="H66" s="19">
+      <c r="H66" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2226,7 +2237,7 @@
         <v>10</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E67" s="4">
         <v>148.27000000000001</v>
@@ -2249,7 +2260,7 @@
         <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E68" s="7">
         <v>0</v>
@@ -2260,7 +2271,7 @@
       <c r="G68" s="7">
         <v>5324.55</v>
       </c>
-      <c r="H68" s="19">
+      <c r="H68" s="7">
         <v>761.36</v>
       </c>
     </row>
@@ -2295,7 +2306,7 @@
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E70" s="7">
         <v>338.03500000000003</v>
@@ -2306,7 +2317,7 @@
       <c r="G70" s="7">
         <v>0</v>
       </c>
-      <c r="H70" s="19">
+      <c r="H70" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2318,7 +2329,7 @@
         <v>11</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E71" s="4">
         <v>618.34299999999996</v>
@@ -2341,7 +2352,7 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E72" s="7">
         <v>529.61400000000003</v>
@@ -2352,7 +2363,7 @@
       <c r="G72" s="7">
         <v>546.65</v>
       </c>
-      <c r="H72" s="19">
+      <c r="H72" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2364,7 +2375,7 @@
         <v>11</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E73" s="4">
         <v>0</v>
@@ -2398,7 +2409,7 @@
       <c r="G74" s="7">
         <v>0</v>
       </c>
-      <c r="H74" s="19">
+      <c r="H74" s="7">
         <v>11989.54</v>
       </c>
     </row>
@@ -2410,7 +2421,7 @@
         <v>12</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E75" s="4">
         <v>311.14600000000002</v>
@@ -2433,7 +2444,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E76" s="7">
         <v>418.36900000000003</v>
@@ -2444,7 +2455,7 @@
       <c r="G76" s="7">
         <v>0</v>
       </c>
-      <c r="H76" s="19">
+      <c r="H76" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2456,7 +2467,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E77" s="4">
         <v>0</v>
@@ -2479,7 +2490,7 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E78" s="7">
         <v>0</v>
@@ -2490,7 +2501,7 @@
       <c r="G78" s="7">
         <v>6880.84</v>
       </c>
-      <c r="H78" s="19">
+      <c r="H78" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2525,7 +2536,7 @@
         <v>43</v>
       </c>
       <c r="D80" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E80" s="7">
         <v>148.13999999999999</v>
@@ -2536,7 +2547,7 @@
       <c r="G80" s="7">
         <v>0</v>
       </c>
-      <c r="H80" s="19">
+      <c r="H80" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2548,7 +2559,7 @@
         <v>43</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E81" s="4">
         <v>301.25299999999999</v>
@@ -2571,7 +2582,7 @@
         <v>43</v>
       </c>
       <c r="D82" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E82" s="7">
         <v>45.3</v>
@@ -2582,7 +2593,7 @@
       <c r="G82" s="7">
         <v>117.4</v>
       </c>
-      <c r="H82" s="19">
+      <c r="H82" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2594,7 +2605,7 @@
         <v>43</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E83" s="4">
         <v>0</v>
@@ -2628,7 +2639,7 @@
       <c r="G84" s="7">
         <v>8.4</v>
       </c>
-      <c r="H84" s="19">
+      <c r="H84" s="7">
         <v>8</v>
       </c>
     </row>
@@ -2640,7 +2651,7 @@
         <v>13</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E85" s="4">
         <v>87.53</v>
@@ -2663,7 +2674,7 @@
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E86" s="7">
         <v>146.505</v>
@@ -2674,7 +2685,7 @@
       <c r="G86" s="7">
         <v>0</v>
       </c>
-      <c r="H86" s="19">
+      <c r="H86" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2686,7 +2697,7 @@
         <v>13</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E87" s="4">
         <v>64</v>
@@ -2709,7 +2720,7 @@
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E88" s="7">
         <v>0</v>
@@ -2720,7 +2731,7 @@
       <c r="G88" s="7">
         <v>333.2</v>
       </c>
-      <c r="H88" s="19">
+      <c r="H88" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2755,7 +2766,7 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E90" s="7">
         <v>31.43</v>
@@ -2766,7 +2777,7 @@
       <c r="G90" s="7">
         <v>0</v>
       </c>
-      <c r="H90" s="19">
+      <c r="H90" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2778,7 +2789,7 @@
         <v>14</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E91" s="4">
         <v>273.33600000000001</v>
@@ -2801,7 +2812,7 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E92" s="7">
         <v>25.85</v>
@@ -2812,7 +2823,7 @@
       <c r="G92" s="7">
         <v>310.85000000000002</v>
       </c>
-      <c r="H92" s="19">
+      <c r="H92" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2824,7 +2835,7 @@
         <v>14</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E93" s="4">
         <v>0</v>
@@ -2858,7 +2869,7 @@
       <c r="G94" s="7">
         <v>0</v>
       </c>
-      <c r="H94" s="19">
+      <c r="H94" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2870,7 +2881,7 @@
         <v>15</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E95" s="4">
         <v>388.74</v>
@@ -2893,7 +2904,7 @@
         <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E96" s="7">
         <v>319.98899999999998</v>
@@ -2904,7 +2915,7 @@
       <c r="G96" s="7">
         <v>0</v>
       </c>
-      <c r="H96" s="19">
+      <c r="H96" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2916,7 +2927,7 @@
         <v>15</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E97" s="4">
         <v>10.799999999999899</v>
@@ -2939,7 +2950,7 @@
         <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E98" s="7">
         <v>0</v>
@@ -2950,7 +2961,7 @@
       <c r="G98" s="7">
         <v>2457.9</v>
       </c>
-      <c r="H98" s="19">
+      <c r="H98" s="7">
         <v>11.7</v>
       </c>
     </row>
@@ -2985,7 +2996,7 @@
         <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E100" s="7">
         <v>130.89999999999998</v>
@@ -2996,7 +3007,7 @@
       <c r="G100" s="7">
         <v>0</v>
       </c>
-      <c r="H100" s="19">
+      <c r="H100" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3008,7 +3019,7 @@
         <v>16</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E101" s="4">
         <v>26.6</v>
@@ -3031,7 +3042,7 @@
         <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E102" s="7">
         <v>0</v>
@@ -3042,7 +3053,7 @@
       <c r="G102" s="7">
         <v>159.94200000000001</v>
       </c>
-      <c r="H102" s="19">
+      <c r="H102" s="7">
         <v>102</v>
       </c>
     </row>
@@ -3054,7 +3065,7 @@
         <v>16</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E103" s="4">
         <v>0</v>
@@ -3088,7 +3099,7 @@
       <c r="G104" s="7">
         <v>0</v>
       </c>
-      <c r="H104" s="19">
+      <c r="H104" s="7">
         <v>2465.8000000000002</v>
       </c>
     </row>
@@ -3100,7 +3111,7 @@
         <v>17</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E105" s="4">
         <v>91.194999999999993</v>
@@ -3123,7 +3134,7 @@
         <v>17</v>
       </c>
       <c r="D106" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E106" s="7">
         <v>180.7</v>
@@ -3134,7 +3145,7 @@
       <c r="G106" s="7">
         <v>0</v>
       </c>
-      <c r="H106" s="19">
+      <c r="H106" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3146,7 +3157,7 @@
         <v>17</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E107" s="4">
         <v>9.5</v>
@@ -3169,7 +3180,7 @@
         <v>17</v>
       </c>
       <c r="D108" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E108" s="7">
         <v>0</v>
@@ -3180,7 +3191,7 @@
       <c r="G108" s="7">
         <v>3982.15</v>
       </c>
-      <c r="H108" s="19">
+      <c r="H108" s="7">
         <v>26.7</v>
       </c>
     </row>
@@ -3215,7 +3226,7 @@
         <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E110" s="7">
         <v>124.11999999999998</v>
@@ -3226,7 +3237,7 @@
       <c r="G110" s="7">
         <v>0</v>
       </c>
-      <c r="H110" s="19">
+      <c r="H110" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3238,7 +3249,7 @@
         <v>18</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E111" s="4">
         <v>175.94200000000001</v>
@@ -3261,7 +3272,7 @@
         <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E112" s="7">
         <v>61.2</v>
@@ -3272,7 +3283,7 @@
       <c r="G112" s="7">
         <v>31.2</v>
       </c>
-      <c r="H112" s="19">
+      <c r="H112" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3284,7 +3295,7 @@
         <v>18</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E113" s="4">
         <v>0</v>
@@ -3318,7 +3329,7 @@
       <c r="G114" s="7">
         <v>0</v>
       </c>
-      <c r="H114" s="19">
+      <c r="H114" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3330,7 +3341,7 @@
         <v>19</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E115" s="4">
         <v>153.02000000000004</v>
@@ -3353,7 +3364,7 @@
         <v>19</v>
       </c>
       <c r="D116" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E116" s="7">
         <v>71.86</v>
@@ -3364,7 +3375,7 @@
       <c r="G116" s="7">
         <v>0</v>
       </c>
-      <c r="H116" s="19">
+      <c r="H116" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3376,7 +3387,7 @@
         <v>19</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E117" s="4">
         <v>91.6</v>
@@ -3399,7 +3410,7 @@
         <v>19</v>
       </c>
       <c r="D118" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E118" s="7">
         <v>0</v>
@@ -3410,7 +3421,7 @@
       <c r="G118" s="7">
         <v>2415.4</v>
       </c>
-      <c r="H118" s="19">
+      <c r="H118" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3445,7 +3456,7 @@
         <v>20</v>
       </c>
       <c r="D120" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E120" s="7">
         <v>431.58</v>
@@ -3456,7 +3467,7 @@
       <c r="G120" s="7">
         <v>0</v>
       </c>
-      <c r="H120" s="19">
+      <c r="H120" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3468,7 +3479,7 @@
         <v>20</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E121" s="4">
         <v>52.443999999999996</v>
@@ -3491,7 +3502,7 @@
         <v>20</v>
       </c>
       <c r="D122" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E122" s="7">
         <v>108.84</v>
@@ -3502,7 +3513,7 @@
       <c r="G122" s="7">
         <v>1.6</v>
       </c>
-      <c r="H122" s="19">
+      <c r="H122" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3514,7 +3525,7 @@
         <v>20</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E123" s="4">
         <v>0</v>
@@ -3548,7 +3559,7 @@
       <c r="G124" s="7">
         <v>21.8</v>
       </c>
-      <c r="H124" s="19">
+      <c r="H124" s="7">
         <v>352</v>
       </c>
     </row>
@@ -3560,7 +3571,7 @@
         <v>21</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E125" s="4">
         <v>270.99600000000004</v>
@@ -3583,7 +3594,7 @@
         <v>21</v>
       </c>
       <c r="D126" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E126" s="7">
         <v>371.3</v>
@@ -3594,7 +3605,7 @@
       <c r="G126" s="7">
         <v>0</v>
       </c>
-      <c r="H126" s="19">
+      <c r="H126" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3606,7 +3617,7 @@
         <v>21</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E127" s="4">
         <v>178.19999999999899</v>
@@ -3629,7 +3640,7 @@
         <v>21</v>
       </c>
       <c r="D128" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E128" s="7">
         <v>0</v>
@@ -3640,7 +3651,7 @@
       <c r="G128" s="7">
         <v>3474.8679999999899</v>
       </c>
-      <c r="H128" s="19">
+      <c r="H128" s="7">
         <v>2451.5099999999902</v>
       </c>
     </row>
@@ -3675,7 +3686,7 @@
         <v>22</v>
       </c>
       <c r="D130" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E130" s="7">
         <v>156.58000000000001</v>
@@ -3686,7 +3697,7 @@
       <c r="G130" s="7">
         <v>0</v>
       </c>
-      <c r="H130" s="19">
+      <c r="H130" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3698,7 +3709,7 @@
         <v>22</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E131" s="4">
         <v>740.68499999999995</v>
@@ -3721,7 +3732,7 @@
         <v>22</v>
       </c>
       <c r="D132" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E132" s="7">
         <v>69.52</v>
@@ -3732,7 +3743,7 @@
       <c r="G132" s="7">
         <v>0</v>
       </c>
-      <c r="H132" s="19">
+      <c r="H132" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3744,7 +3755,7 @@
         <v>22</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E133" s="4">
         <v>0</v>
@@ -3778,7 +3789,7 @@
       <c r="G134" s="7">
         <v>0</v>
       </c>
-      <c r="H134" s="19">
+      <c r="H134" s="7">
         <v>13470.9</v>
       </c>
     </row>
@@ -3790,7 +3801,7 @@
         <v>23</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E135" s="4">
         <v>162.38</v>
@@ -3813,7 +3824,7 @@
         <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E136" s="7">
         <v>85.012</v>
@@ -3824,7 +3835,7 @@
       <c r="G136" s="7">
         <v>0</v>
       </c>
-      <c r="H136" s="19">
+      <c r="H136" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3836,7 +3847,7 @@
         <v>23</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E137" s="4">
         <v>59.98</v>
@@ -3859,7 +3870,7 @@
         <v>23</v>
       </c>
       <c r="D138" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E138" s="7">
         <v>0</v>
@@ -3870,7 +3881,7 @@
       <c r="G138" s="7">
         <v>1201.3</v>
       </c>
-      <c r="H138" s="19">
+      <c r="H138" s="7">
         <v>583.28</v>
       </c>
     </row>
@@ -3905,7 +3916,7 @@
         <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E140" s="7">
         <v>228.12700000000001</v>
@@ -3916,7 +3927,7 @@
       <c r="G140" s="7">
         <v>0</v>
       </c>
-      <c r="H140" s="19">
+      <c r="H140" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3928,7 +3939,7 @@
         <v>24</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E141" s="4">
         <v>63.14</v>
@@ -3951,7 +3962,7 @@
         <v>24</v>
       </c>
       <c r="D142" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E142" s="7">
         <v>44</v>
@@ -3962,7 +3973,7 @@
       <c r="G142" s="7">
         <v>873.79</v>
       </c>
-      <c r="H142" s="19">
+      <c r="H142" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3974,7 +3985,7 @@
         <v>24</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E143" s="4">
         <v>0</v>
@@ -4008,7 +4019,7 @@
       <c r="G144" s="7">
         <v>0</v>
       </c>
-      <c r="H144" s="19">
+      <c r="H144" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4020,7 +4031,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E145" s="4">
         <v>193.03000000000003</v>
@@ -4043,7 +4054,7 @@
         <v>25</v>
       </c>
       <c r="D146" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E146" s="7">
         <v>72.322000000000003</v>
@@ -4054,7 +4065,7 @@
       <c r="G146" s="7">
         <v>0</v>
       </c>
-      <c r="H146" s="19">
+      <c r="H146" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4066,7 +4077,7 @@
         <v>25</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E147" s="4">
         <v>0</v>
@@ -4089,7 +4100,7 @@
         <v>25</v>
       </c>
       <c r="D148" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E148" s="7">
         <v>0</v>
@@ -4100,7 +4111,7 @@
       <c r="G148" s="7">
         <v>1202.7</v>
       </c>
-      <c r="H148" s="19">
+      <c r="H148" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4135,7 +4146,7 @@
         <v>44</v>
       </c>
       <c r="D150" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E150" s="7">
         <v>227.26500000000004</v>
@@ -4146,7 +4157,7 @@
       <c r="G150" s="7">
         <v>0</v>
       </c>
-      <c r="H150" s="19">
+      <c r="H150" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4158,7 +4169,7 @@
         <v>44</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E151" s="4">
         <v>532.71799999999996</v>
@@ -4181,7 +4192,7 @@
         <v>44</v>
       </c>
       <c r="D152" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E152" s="7">
         <v>14.1</v>
@@ -4192,7 +4203,7 @@
       <c r="G152" s="7">
         <v>1720.43</v>
       </c>
-      <c r="H152" s="19">
+      <c r="H152" s="7">
         <v>163.04</v>
       </c>
     </row>
@@ -4204,7 +4215,7 @@
         <v>44</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E153" s="4">
         <v>0</v>
@@ -4238,7 +4249,7 @@
       <c r="G154" s="7">
         <v>2023.35</v>
       </c>
-      <c r="H154" s="19">
+      <c r="H154" s="7">
         <v>1761.45</v>
       </c>
     </row>
@@ -4250,7 +4261,7 @@
         <v>26</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E155" s="4">
         <v>259.87</v>
@@ -4273,7 +4284,7 @@
         <v>26</v>
       </c>
       <c r="D156" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E156" s="7">
         <v>154.44</v>
@@ -4284,7 +4295,7 @@
       <c r="G156" s="7">
         <v>0</v>
       </c>
-      <c r="H156" s="19">
+      <c r="H156" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4296,7 +4307,7 @@
         <v>26</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E157" s="4">
         <v>67.8</v>
@@ -4319,7 +4330,7 @@
         <v>26</v>
       </c>
       <c r="D158" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E158" s="7">
         <v>0</v>
@@ -4330,7 +4341,7 @@
       <c r="G158" s="7">
         <v>2511.09</v>
       </c>
-      <c r="H158" s="19">
+      <c r="H158" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4365,7 +4376,7 @@
         <v>27</v>
       </c>
       <c r="D160" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E160" s="7">
         <v>591.23</v>
@@ -4376,7 +4387,7 @@
       <c r="G160" s="7">
         <v>0</v>
       </c>
-      <c r="H160" s="19">
+      <c r="H160" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4388,7 +4399,7 @@
         <v>27</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E161" s="4">
         <v>32.25</v>
@@ -4411,7 +4422,7 @@
         <v>27</v>
       </c>
       <c r="D162" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E162" s="7">
         <v>31.82</v>
@@ -4422,7 +4433,7 @@
       <c r="G162" s="7">
         <v>0</v>
       </c>
-      <c r="H162" s="19">
+      <c r="H162" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4434,7 +4445,7 @@
         <v>27</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E163" s="4">
         <v>0</v>
@@ -4515,7 +4526,7 @@
       <c r="G166" s="7">
         <v>0</v>
       </c>
-      <c r="H166" s="19">
+      <c r="H166" s="7">
         <v>0</v>
       </c>
       <c r="I166" s="3"/>
@@ -4562,7 +4573,7 @@
       <c r="G168" s="7">
         <v>518</v>
       </c>
-      <c r="H168" s="19">
+      <c r="H168" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4608,7 +4619,7 @@
       <c r="G170" s="7">
         <v>0</v>
       </c>
-      <c r="H170" s="19">
+      <c r="H170" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4654,7 +4665,7 @@
       <c r="G172" s="7">
         <v>0</v>
       </c>
-      <c r="H172" s="19">
+      <c r="H172" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4700,7 +4711,7 @@
       <c r="G174" s="7">
         <v>0</v>
       </c>
-      <c r="H174" s="19">
+      <c r="H174" s="7">
         <v>4283.5</v>
       </c>
     </row>
@@ -4746,7 +4757,7 @@
       <c r="G176" s="7">
         <v>0</v>
       </c>
-      <c r="H176" s="19">
+      <c r="H176" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4792,7 +4803,7 @@
       <c r="G178" s="7">
         <v>1000.12</v>
       </c>
-      <c r="H178" s="19">
+      <c r="H178" s="7">
         <v>409.34</v>
       </c>
     </row>
@@ -4838,7 +4849,7 @@
       <c r="G180" s="7">
         <v>0</v>
       </c>
-      <c r="H180" s="19">
+      <c r="H180" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4884,7 +4895,7 @@
       <c r="G182" s="7">
         <v>0</v>
       </c>
-      <c r="H182" s="19">
+      <c r="H182" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4930,7 +4941,7 @@
       <c r="G184" s="7">
         <v>0</v>
       </c>
-      <c r="H184" s="19">
+      <c r="H184" s="7">
         <v>133.19999999999999</v>
       </c>
     </row>
@@ -4976,7 +4987,7 @@
       <c r="G186" s="7">
         <v>0</v>
       </c>
-      <c r="H186" s="19">
+      <c r="H186" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5022,7 +5033,7 @@
       <c r="G188" s="7">
         <v>3745.3</v>
       </c>
-      <c r="H188" s="19">
+      <c r="H188" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5068,7 +5079,7 @@
       <c r="G190" s="7">
         <v>0</v>
       </c>
-      <c r="H190" s="19">
+      <c r="H190" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5114,7 +5125,7 @@
       <c r="G192" s="7">
         <v>7.2</v>
       </c>
-      <c r="H192" s="19">
+      <c r="H192" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5160,7 +5171,7 @@
       <c r="G194" s="7">
         <v>27.4</v>
       </c>
-      <c r="H194" s="19">
+      <c r="H194" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5206,7 +5217,7 @@
       <c r="G196" s="7">
         <v>0</v>
       </c>
-      <c r="H196" s="19">
+      <c r="H196" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5252,7 +5263,7 @@
       <c r="G198" s="7">
         <v>15194.129999999988</v>
       </c>
-      <c r="H198" s="19">
+      <c r="H198" s="7">
         <v>378.07299999999998</v>
       </c>
     </row>
@@ -5298,7 +5309,7 @@
       <c r="G200" s="7">
         <v>0</v>
       </c>
-      <c r="H200" s="19">
+      <c r="H200" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5344,7 +5355,7 @@
       <c r="G202" s="7">
         <v>0</v>
       </c>
-      <c r="H202" s="19">
+      <c r="H202" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5390,7 +5401,7 @@
       <c r="G204" s="7">
         <v>0</v>
       </c>
-      <c r="H204" s="19">
+      <c r="H204" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5436,7 +5447,7 @@
       <c r="G206" s="7">
         <v>0</v>
       </c>
-      <c r="H206" s="19">
+      <c r="H206" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5482,7 +5493,7 @@
       <c r="G208" s="7">
         <v>0</v>
       </c>
-      <c r="H208" s="19">
+      <c r="H208" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5528,7 +5539,7 @@
       <c r="G210" s="7">
         <v>0</v>
       </c>
-      <c r="H210" s="19">
+      <c r="H210" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5574,7 +5585,7 @@
       <c r="G212" s="7">
         <v>482.28</v>
       </c>
-      <c r="H212" s="19">
+      <c r="H212" s="7">
         <v>57.599999999999902</v>
       </c>
     </row>
@@ -5620,7 +5631,7 @@
       <c r="G214" s="7">
         <v>0</v>
       </c>
-      <c r="H214" s="19">
+      <c r="H214" s="7">
         <v>721.17999999999904</v>
       </c>
     </row>
@@ -5666,7 +5677,7 @@
       <c r="G216" s="7">
         <v>0</v>
       </c>
-      <c r="H216" s="19">
+      <c r="H216" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5712,7 +5723,7 @@
       <c r="G218" s="7">
         <v>6324.22</v>
       </c>
-      <c r="H218" s="19">
+      <c r="H218" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5758,7 +5769,7 @@
       <c r="G220" s="7">
         <v>0</v>
       </c>
-      <c r="H220" s="19">
+      <c r="H220" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5804,7 +5815,7 @@
       <c r="G222" s="7">
         <v>0</v>
       </c>
-      <c r="H222" s="19">
+      <c r="H222" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5850,7 +5861,7 @@
       <c r="G224" s="7">
         <v>0</v>
       </c>
-      <c r="H224" s="19">
+      <c r="H224" s="7">
         <v>6220.15</v>
       </c>
     </row>
@@ -5896,7 +5907,7 @@
       <c r="G226" s="7">
         <v>0</v>
       </c>
-      <c r="H226" s="19">
+      <c r="H226" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5942,7 +5953,7 @@
       <c r="G228" s="7">
         <v>6462.53</v>
       </c>
-      <c r="H228" s="19">
+      <c r="H228" s="7">
         <v>1129.29</v>
       </c>
     </row>
@@ -5988,7 +5999,7 @@
       <c r="G230" s="7">
         <v>0</v>
       </c>
-      <c r="H230" s="19">
+      <c r="H230" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6034,7 +6045,7 @@
       <c r="G232" s="7">
         <v>546.65</v>
       </c>
-      <c r="H232" s="19">
+      <c r="H232" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6080,7 +6091,7 @@
       <c r="G234" s="7">
         <v>0</v>
       </c>
-      <c r="H234" s="19">
+      <c r="H234" s="7">
         <v>11982.92</v>
       </c>
     </row>
@@ -6126,7 +6137,7 @@
       <c r="G236" s="7">
         <v>0</v>
       </c>
-      <c r="H236" s="19">
+      <c r="H236" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6172,7 +6183,7 @@
       <c r="G238" s="7">
         <v>6880.8400000000302</v>
       </c>
-      <c r="H238" s="19">
+      <c r="H238" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6218,7 +6229,7 @@
       <c r="G240" s="7">
         <v>0</v>
       </c>
-      <c r="H240" s="19">
+      <c r="H240" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6264,7 +6275,7 @@
       <c r="G242" s="7">
         <v>117.4</v>
       </c>
-      <c r="H242" s="19">
+      <c r="H242" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6310,7 +6321,7 @@
       <c r="G244" s="7">
         <v>8.4</v>
       </c>
-      <c r="H244" s="19">
+      <c r="H244" s="7">
         <v>8</v>
       </c>
     </row>
@@ -6356,7 +6367,7 @@
       <c r="G246" s="7">
         <v>0</v>
       </c>
-      <c r="H246" s="19">
+      <c r="H246" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6402,7 +6413,7 @@
       <c r="G248" s="7">
         <v>333.20000000000005</v>
       </c>
-      <c r="H248" s="19">
+      <c r="H248" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6448,7 +6459,7 @@
       <c r="G250" s="7">
         <v>0</v>
       </c>
-      <c r="H250" s="19">
+      <c r="H250" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6494,7 +6505,7 @@
       <c r="G252" s="7">
         <v>310.85000000000002</v>
       </c>
-      <c r="H252" s="19">
+      <c r="H252" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6540,7 +6551,7 @@
       <c r="G254" s="7">
         <v>0</v>
       </c>
-      <c r="H254" s="19">
+      <c r="H254" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6586,7 +6597,7 @@
       <c r="G256" s="7">
         <v>0</v>
       </c>
-      <c r="H256" s="19">
+      <c r="H256" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6632,7 +6643,7 @@
       <c r="G258" s="7">
         <v>2462.1</v>
       </c>
-      <c r="H258" s="19">
+      <c r="H258" s="7">
         <v>11.7</v>
       </c>
     </row>
@@ -6678,7 +6689,7 @@
       <c r="G260" s="7">
         <v>0</v>
       </c>
-      <c r="H260" s="19">
+      <c r="H260" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6724,7 +6735,7 @@
       <c r="G262" s="7">
         <v>72</v>
       </c>
-      <c r="H262" s="19">
+      <c r="H262" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6770,7 +6781,7 @@
       <c r="G264" s="7">
         <v>0</v>
       </c>
-      <c r="H264" s="19">
+      <c r="H264" s="7">
         <v>2427.3000000000002</v>
       </c>
     </row>
@@ -6816,7 +6827,7 @@
       <c r="G266" s="7">
         <v>0</v>
       </c>
-      <c r="H266" s="19">
+      <c r="H266" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6862,7 +6873,7 @@
       <c r="G268" s="7">
         <v>4317.12</v>
       </c>
-      <c r="H268" s="19">
+      <c r="H268" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6908,7 +6919,7 @@
       <c r="G270" s="7">
         <v>0</v>
       </c>
-      <c r="H270" s="19">
+      <c r="H270" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6954,7 +6965,7 @@
       <c r="G272" s="7">
         <v>31.2</v>
       </c>
-      <c r="H272" s="19">
+      <c r="H272" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7000,7 +7011,7 @@
       <c r="G274" s="7">
         <v>0</v>
       </c>
-      <c r="H274" s="19">
+      <c r="H274" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7046,7 +7057,7 @@
       <c r="G276" s="7">
         <v>0</v>
       </c>
-      <c r="H276" s="19">
+      <c r="H276" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7092,7 +7103,7 @@
       <c r="G278" s="7">
         <v>2415.4</v>
       </c>
-      <c r="H278" s="19">
+      <c r="H278" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7138,7 +7149,7 @@
       <c r="G280" s="7">
         <v>0</v>
       </c>
-      <c r="H280" s="19">
+      <c r="H280" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7184,7 +7195,7 @@
       <c r="G282" s="7">
         <v>0</v>
       </c>
-      <c r="H282" s="19">
+      <c r="H282" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7230,7 +7241,7 @@
       <c r="G284" s="7">
         <v>21.8</v>
       </c>
-      <c r="H284" s="19">
+      <c r="H284" s="7">
         <v>352</v>
       </c>
     </row>
@@ -7276,7 +7287,7 @@
       <c r="G286" s="7">
         <v>0</v>
       </c>
-      <c r="H286" s="19">
+      <c r="H286" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7322,7 +7333,7 @@
       <c r="G288" s="7">
         <v>3535.14</v>
       </c>
-      <c r="H288" s="19">
+      <c r="H288" s="7">
         <v>2509.31</v>
       </c>
     </row>
@@ -7368,7 +7379,7 @@
       <c r="G290" s="7">
         <v>0</v>
       </c>
-      <c r="H290" s="19">
+      <c r="H290" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7414,7 +7425,7 @@
       <c r="G292" s="7">
         <v>0</v>
       </c>
-      <c r="H292" s="19">
+      <c r="H292" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7460,7 +7471,7 @@
       <c r="G294" s="7">
         <v>0</v>
       </c>
-      <c r="H294" s="19">
+      <c r="H294" s="7">
         <v>13470.8999999999</v>
       </c>
     </row>
@@ -7506,7 +7517,7 @@
       <c r="G296" s="7">
         <v>0</v>
       </c>
-      <c r="H296" s="19">
+      <c r="H296" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7552,7 +7563,7 @@
       <c r="G298" s="7">
         <v>1201.3</v>
       </c>
-      <c r="H298" s="19">
+      <c r="H298" s="7">
         <v>583.28</v>
       </c>
     </row>
@@ -7598,7 +7609,7 @@
       <c r="G300" s="7">
         <v>0</v>
       </c>
-      <c r="H300" s="19">
+      <c r="H300" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7644,7 +7655,7 @@
       <c r="G302" s="7">
         <v>873.79</v>
       </c>
-      <c r="H302" s="19">
+      <c r="H302" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7690,7 +7701,7 @@
       <c r="G304" s="7">
         <v>0</v>
       </c>
-      <c r="H304" s="19">
+      <c r="H304" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7736,7 +7747,7 @@
       <c r="G306" s="7">
         <v>0</v>
       </c>
-      <c r="H306" s="19">
+      <c r="H306" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7782,7 +7793,7 @@
       <c r="G308" s="7">
         <v>1202.7</v>
       </c>
-      <c r="H308" s="19">
+      <c r="H308" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7828,7 +7839,7 @@
       <c r="G310" s="7">
         <v>0</v>
       </c>
-      <c r="H310" s="19">
+      <c r="H310" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7874,7 +7885,7 @@
       <c r="G312" s="7">
         <v>1709.88</v>
       </c>
-      <c r="H312" s="19">
+      <c r="H312" s="7">
         <v>158.24</v>
       </c>
     </row>
@@ -7920,7 +7931,7 @@
       <c r="G314" s="7">
         <v>2023.35</v>
       </c>
-      <c r="H314" s="19">
+      <c r="H314" s="7">
         <v>1761.45</v>
       </c>
     </row>
@@ -7966,7 +7977,7 @@
       <c r="G316" s="7">
         <v>0</v>
       </c>
-      <c r="H316" s="19">
+      <c r="H316" s="7">
         <v>0</v>
       </c>
     </row>
@@ -8012,7 +8023,7 @@
       <c r="G318" s="7">
         <v>2511.09</v>
       </c>
-      <c r="H318" s="19">
+      <c r="H318" s="7">
         <v>0</v>
       </c>
     </row>
@@ -8058,7 +8069,7 @@
       <c r="G320" s="7">
         <v>0</v>
       </c>
-      <c r="H320" s="19">
+      <c r="H320" s="7">
         <v>0</v>
       </c>
     </row>
@@ -8104,7 +8115,7 @@
       <c r="G322" s="7">
         <v>0</v>
       </c>
-      <c r="H322" s="19">
+      <c r="H322" s="7">
         <v>0</v>
       </c>
     </row>
@@ -8196,7 +8207,7 @@
       <c r="G326" s="7">
         <v>0</v>
       </c>
-      <c r="H326" s="19">
+      <c r="H326" s="7">
         <v>0</v>
       </c>
     </row>
@@ -8242,7 +8253,7 @@
       <c r="G328" s="7">
         <v>518</v>
       </c>
-      <c r="H328" s="19">
+      <c r="H328" s="7">
         <v>0</v>
       </c>
     </row>
@@ -8288,7 +8299,7 @@
       <c r="G330" s="7">
         <v>0</v>
       </c>
-      <c r="H330" s="19">
+      <c r="H330" s="7">
         <v>0</v>
       </c>
     </row>
@@ -8334,7 +8345,7 @@
       <c r="G332" s="7">
         <v>0</v>
       </c>
-      <c r="H332" s="19">
+      <c r="H332" s="7">
         <v>0</v>
       </c>
     </row>
@@ -8380,7 +8391,7 @@
       <c r="G334" s="7">
         <v>0</v>
       </c>
-      <c r="H334" s="19">
+      <c r="H334" s="7">
         <v>4283.5</v>
       </c>
     </row>
@@ -8426,7 +8437,7 @@
       <c r="G336" s="7">
         <v>0</v>
       </c>
-      <c r="H336" s="19">
+      <c r="H336" s="7">
         <v>0</v>
       </c>
     </row>
@@ -8472,7 +8483,7 @@
       <c r="G338" s="7">
         <v>1000.12</v>
       </c>
-      <c r="H338" s="19">
+      <c r="H338" s="7">
         <v>273.10000000000002</v>
       </c>
     </row>
@@ -8518,7 +8529,7 @@
       <c r="G340" s="7">
         <v>0</v>
       </c>
-      <c r="H340" s="19">
+      <c r="H340" s="7">
         <v>0</v>
       </c>
     </row>
@@ -8564,7 +8575,7 @@
       <c r="G342" s="7">
         <v>0</v>
       </c>
-      <c r="H342" s="19">
+      <c r="H342" s="7">
         <v>0</v>
       </c>
     </row>
@@ -8610,7 +8621,7 @@
       <c r="G344" s="7">
         <v>0</v>
       </c>
-      <c r="H344" s="19">
+      <c r="H344" s="7">
         <v>133.19999999999999</v>
       </c>
     </row>
@@ -8656,7 +8667,7 @@
       <c r="G346" s="7">
         <v>0</v>
       </c>
-      <c r="H346" s="19">
+      <c r="H346" s="7">
         <v>0</v>
       </c>
     </row>
@@ -8702,7 +8713,7 @@
       <c r="G348" s="7">
         <v>3745.3</v>
       </c>
-      <c r="H348" s="19">
+      <c r="H348" s="7">
         <v>0</v>
       </c>
     </row>
@@ -8748,7 +8759,7 @@
       <c r="G350" s="7">
         <v>0</v>
       </c>
-      <c r="H350" s="19">
+      <c r="H350" s="7">
         <v>0</v>
       </c>
     </row>
@@ -8794,7 +8805,7 @@
       <c r="G352" s="7">
         <v>7.2</v>
       </c>
-      <c r="H352" s="19">
+      <c r="H352" s="7">
         <v>0</v>
       </c>
     </row>
@@ -8840,7 +8851,7 @@
       <c r="G354" s="7">
         <v>27.4</v>
       </c>
-      <c r="H354" s="19">
+      <c r="H354" s="7">
         <v>0</v>
       </c>
     </row>
@@ -8886,7 +8897,7 @@
       <c r="G356" s="7">
         <v>0</v>
       </c>
-      <c r="H356" s="19">
+      <c r="H356" s="7">
         <v>0</v>
       </c>
     </row>
@@ -8932,7 +8943,7 @@
       <c r="G358" s="7">
         <v>15194.129999999988</v>
       </c>
-      <c r="H358" s="19">
+      <c r="H358" s="7">
         <v>378.07299999999998</v>
       </c>
     </row>
@@ -8978,7 +8989,7 @@
       <c r="G360" s="7">
         <v>0</v>
       </c>
-      <c r="H360" s="19">
+      <c r="H360" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9024,7 +9035,7 @@
       <c r="G362" s="7">
         <v>0</v>
       </c>
-      <c r="H362" s="19">
+      <c r="H362" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9070,7 +9081,7 @@
       <c r="G364" s="7">
         <v>0</v>
       </c>
-      <c r="H364" s="19">
+      <c r="H364" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9116,7 +9127,7 @@
       <c r="G366" s="7">
         <v>0</v>
       </c>
-      <c r="H366" s="19">
+      <c r="H366" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9162,7 +9173,7 @@
       <c r="G368" s="7">
         <v>0</v>
       </c>
-      <c r="H368" s="19">
+      <c r="H368" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9208,7 +9219,7 @@
       <c r="G370" s="7">
         <v>0</v>
       </c>
-      <c r="H370" s="19">
+      <c r="H370" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9254,7 +9265,7 @@
       <c r="G372" s="7">
         <v>482.28</v>
       </c>
-      <c r="H372" s="19">
+      <c r="H372" s="7">
         <v>57.599999999999902</v>
       </c>
     </row>
@@ -9300,7 +9311,7 @@
       <c r="G374" s="7">
         <v>0</v>
       </c>
-      <c r="H374" s="19">
+      <c r="H374" s="7">
         <v>721.18</v>
       </c>
     </row>
@@ -9346,7 +9357,7 @@
       <c r="G376" s="7">
         <v>0</v>
       </c>
-      <c r="H376" s="19">
+      <c r="H376" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9392,7 +9403,7 @@
       <c r="G378" s="7">
         <v>6343.77</v>
       </c>
-      <c r="H378" s="19">
+      <c r="H378" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9438,7 +9449,7 @@
       <c r="G380" s="7">
         <v>0</v>
       </c>
-      <c r="H380" s="19">
+      <c r="H380" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9484,7 +9495,7 @@
       <c r="G382" s="7">
         <v>0</v>
       </c>
-      <c r="H382" s="19">
+      <c r="H382" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9530,7 +9541,7 @@
       <c r="G384" s="7">
         <v>0</v>
       </c>
-      <c r="H384" s="19">
+      <c r="H384" s="7">
         <v>5990.04</v>
       </c>
     </row>
@@ -9576,7 +9587,7 @@
       <c r="G386" s="7">
         <v>0</v>
       </c>
-      <c r="H386" s="19">
+      <c r="H386" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9622,7 +9633,7 @@
       <c r="G388" s="7">
         <v>6518.03</v>
       </c>
-      <c r="H388" s="19">
+      <c r="H388" s="7">
         <v>1129.29</v>
       </c>
     </row>
@@ -9668,7 +9679,7 @@
       <c r="G390" s="7">
         <v>0</v>
       </c>
-      <c r="H390" s="19">
+      <c r="H390" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9714,7 +9725,7 @@
       <c r="G392" s="7">
         <v>543.70000000000005</v>
       </c>
-      <c r="H392" s="19">
+      <c r="H392" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9760,7 +9771,7 @@
       <c r="G394" s="7">
         <v>0</v>
       </c>
-      <c r="H394" s="19">
+      <c r="H394" s="7">
         <v>11982.92</v>
       </c>
     </row>
@@ -9806,7 +9817,7 @@
       <c r="G396" s="7">
         <v>0</v>
       </c>
-      <c r="H396" s="19">
+      <c r="H396" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9852,7 +9863,7 @@
       <c r="G398" s="7">
         <v>6880.8400000000302</v>
       </c>
-      <c r="H398" s="19">
+      <c r="H398" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9898,7 +9909,7 @@
       <c r="G400" s="7">
         <v>0</v>
       </c>
-      <c r="H400" s="19">
+      <c r="H400" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9944,7 +9955,7 @@
       <c r="G402" s="7">
         <v>117.4</v>
       </c>
-      <c r="H402" s="19">
+      <c r="H402" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9990,7 +10001,7 @@
       <c r="G404" s="7">
         <v>8.4</v>
       </c>
-      <c r="H404" s="19">
+      <c r="H404" s="7">
         <v>8</v>
       </c>
     </row>
@@ -10036,7 +10047,7 @@
       <c r="G406" s="7">
         <v>0</v>
       </c>
-      <c r="H406" s="19">
+      <c r="H406" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10082,7 +10093,7 @@
       <c r="G408" s="7">
         <v>360.3</v>
       </c>
-      <c r="H408" s="19">
+      <c r="H408" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10128,7 +10139,7 @@
       <c r="G410" s="7">
         <v>0</v>
       </c>
-      <c r="H410" s="19">
+      <c r="H410" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10174,7 +10185,7 @@
       <c r="G412" s="7">
         <v>322.14999999999998</v>
       </c>
-      <c r="H412" s="19">
+      <c r="H412" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10220,7 +10231,7 @@
       <c r="G414" s="7">
         <v>0</v>
       </c>
-      <c r="H414" s="19">
+      <c r="H414" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10266,7 +10277,7 @@
       <c r="G416" s="7">
         <v>0</v>
       </c>
-      <c r="H416" s="19">
+      <c r="H416" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10312,7 +10323,7 @@
       <c r="G418" s="7">
         <v>2462.1</v>
       </c>
-      <c r="H418" s="19">
+      <c r="H418" s="7">
         <v>11.7</v>
       </c>
     </row>
@@ -10358,7 +10369,7 @@
       <c r="G420" s="7">
         <v>0</v>
       </c>
-      <c r="H420" s="19">
+      <c r="H420" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10404,7 +10415,7 @@
       <c r="G422" s="7">
         <v>72</v>
       </c>
-      <c r="H422" s="19">
+      <c r="H422" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10450,7 +10461,7 @@
       <c r="G424" s="7">
         <v>0</v>
       </c>
-      <c r="H424" s="19">
+      <c r="H424" s="7">
         <v>2427.3000000000002</v>
       </c>
     </row>
@@ -10496,7 +10507,7 @@
       <c r="G426" s="7">
         <v>0</v>
       </c>
-      <c r="H426" s="19">
+      <c r="H426" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10542,7 +10553,7 @@
       <c r="G428" s="7">
         <v>4317.12</v>
       </c>
-      <c r="H428" s="19">
+      <c r="H428" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10588,7 +10599,7 @@
       <c r="G430" s="7">
         <v>0</v>
       </c>
-      <c r="H430" s="19">
+      <c r="H430" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10634,7 +10645,7 @@
       <c r="G432" s="7">
         <v>31.2</v>
       </c>
-      <c r="H432" s="19">
+      <c r="H432" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10680,7 +10691,7 @@
       <c r="G434" s="7">
         <v>0</v>
       </c>
-      <c r="H434" s="19">
+      <c r="H434" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10726,7 +10737,7 @@
       <c r="G436" s="7">
         <v>0</v>
       </c>
-      <c r="H436" s="19">
+      <c r="H436" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10772,7 +10783,7 @@
       <c r="G438" s="7">
         <v>2415.4</v>
       </c>
-      <c r="H438" s="19">
+      <c r="H438" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10818,7 +10829,7 @@
       <c r="G440" s="7">
         <v>0</v>
       </c>
-      <c r="H440" s="19">
+      <c r="H440" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10864,7 +10875,7 @@
       <c r="G442" s="7">
         <v>0</v>
       </c>
-      <c r="H442" s="19">
+      <c r="H442" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10910,7 +10921,7 @@
       <c r="G444" s="7">
         <v>21.8</v>
       </c>
-      <c r="H444" s="19">
+      <c r="H444" s="7">
         <v>363.6</v>
       </c>
     </row>
@@ -10956,7 +10967,7 @@
       <c r="G446" s="7">
         <v>0</v>
       </c>
-      <c r="H446" s="19">
+      <c r="H446" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11002,7 +11013,7 @@
       <c r="G448" s="7">
         <v>3537.32799999999</v>
       </c>
-      <c r="H448" s="19">
+      <c r="H448" s="7">
         <v>2509.70999999999</v>
       </c>
     </row>
@@ -11048,7 +11059,7 @@
       <c r="G450" s="7">
         <v>0</v>
       </c>
-      <c r="H450" s="19">
+      <c r="H450" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11094,7 +11105,7 @@
       <c r="G452" s="7">
         <v>0</v>
       </c>
-      <c r="H452" s="19">
+      <c r="H452" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11140,7 +11151,7 @@
       <c r="G454" s="7">
         <v>0</v>
       </c>
-      <c r="H454" s="19">
+      <c r="H454" s="7">
         <v>13470.8999999999</v>
       </c>
     </row>
@@ -11186,7 +11197,7 @@
       <c r="G456" s="7">
         <v>0</v>
       </c>
-      <c r="H456" s="19">
+      <c r="H456" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11232,7 +11243,7 @@
       <c r="G458" s="7">
         <v>1201.299999999999</v>
       </c>
-      <c r="H458" s="19">
+      <c r="H458" s="7">
         <v>583.28</v>
       </c>
     </row>
@@ -11278,7 +11289,7 @@
       <c r="G460" s="7">
         <v>0</v>
       </c>
-      <c r="H460" s="19">
+      <c r="H460" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11324,7 +11335,7 @@
       <c r="G462" s="7">
         <v>873.79</v>
       </c>
-      <c r="H462" s="19">
+      <c r="H462" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11370,7 +11381,7 @@
       <c r="G464" s="7">
         <v>0</v>
       </c>
-      <c r="H464" s="19">
+      <c r="H464" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11416,7 +11427,7 @@
       <c r="G466" s="7">
         <v>0</v>
       </c>
-      <c r="H466" s="19">
+      <c r="H466" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11462,7 +11473,7 @@
       <c r="G468" s="7">
         <v>1215.8</v>
       </c>
-      <c r="H468" s="19">
+      <c r="H468" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11508,7 +11519,7 @@
       <c r="G470" s="7">
         <v>0</v>
       </c>
-      <c r="H470" s="19">
+      <c r="H470" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11554,7 +11565,7 @@
       <c r="G472" s="7">
         <v>1771.8799999999994</v>
       </c>
-      <c r="H472" s="19">
+      <c r="H472" s="7">
         <v>158.24</v>
       </c>
     </row>
@@ -11600,7 +11611,7 @@
       <c r="G474" s="7">
         <v>2031.8919999999985</v>
       </c>
-      <c r="H474" s="19">
+      <c r="H474" s="7">
         <v>1810.3999999999999</v>
       </c>
     </row>
@@ -11646,7 +11657,7 @@
       <c r="G476" s="7">
         <v>0</v>
       </c>
-      <c r="H476" s="19">
+      <c r="H476" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11692,7 +11703,7 @@
       <c r="G478" s="7">
         <v>2511.09</v>
       </c>
-      <c r="H478" s="19">
+      <c r="H478" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11738,7 +11749,7 @@
       <c r="G480" s="7">
         <v>0</v>
       </c>
-      <c r="H480" s="19">
+      <c r="H480" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11784,7 +11795,7 @@
       <c r="G482" s="7">
         <v>0</v>
       </c>
-      <c r="H482" s="19">
+      <c r="H482" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11830,7 +11841,7 @@
       <c r="G484" s="7">
         <v>0</v>
       </c>
-      <c r="H484" s="19">
+      <c r="H484" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11876,7 +11887,7 @@
       <c r="G486" s="7">
         <v>72.459999999999994</v>
       </c>
-      <c r="H486" s="19">
+      <c r="H486" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11922,7 +11933,7 @@
       <c r="G488" s="7">
         <v>0</v>
       </c>
-      <c r="H488" s="19">
+      <c r="H488" s="7">
         <v>360.55</v>
       </c>
     </row>
@@ -11968,7 +11979,7 @@
       <c r="G490" s="7">
         <v>0</v>
       </c>
-      <c r="H490" s="19">
+      <c r="H490" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12014,7 +12025,7 @@
       <c r="G492" s="7">
         <v>4138.2430000000004</v>
       </c>
-      <c r="H492" s="19">
+      <c r="H492" s="7">
         <v>713.44800000000009</v>
       </c>
     </row>
@@ -12060,7 +12071,7 @@
       <c r="G494" s="7">
         <v>0</v>
       </c>
-      <c r="H494" s="19">
+      <c r="H494" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12106,7 +12117,7 @@
       <c r="G496" s="7">
         <v>654.79999999999995</v>
       </c>
-      <c r="H496" s="19">
+      <c r="H496" s="7">
         <v>479</v>
       </c>
     </row>
@@ -12152,7 +12163,7 @@
       <c r="G498" s="7">
         <v>0</v>
       </c>
-      <c r="H498" s="19">
+      <c r="H498" s="7">
         <v>1718.47</v>
       </c>
     </row>
@@ -12198,7 +12209,7 @@
       <c r="G500" s="7">
         <v>0</v>
       </c>
-      <c r="H500" s="19">
+      <c r="H500" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12244,7 +12255,7 @@
       <c r="G502" s="7">
         <v>260.10000000000002</v>
       </c>
-      <c r="H502" s="19">
+      <c r="H502" s="7">
         <v>493.14</v>
       </c>
     </row>
@@ -12290,7 +12301,7 @@
       <c r="G504" s="7">
         <v>0</v>
       </c>
-      <c r="H504" s="19">
+      <c r="H504" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12336,7 +12347,7 @@
       <c r="G506" s="7">
         <v>172.6</v>
       </c>
-      <c r="H506" s="19">
+      <c r="H506" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12382,7 +12393,7 @@
       <c r="G508" s="7">
         <v>0</v>
       </c>
-      <c r="H508" s="19">
+      <c r="H508" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12428,7 +12439,7 @@
       <c r="G510" s="7">
         <v>0</v>
       </c>
-      <c r="H510" s="19">
+      <c r="H510" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12474,7 +12485,7 @@
       <c r="G512" s="7">
         <v>1094</v>
       </c>
-      <c r="H512" s="19">
+      <c r="H512" s="7">
         <v>20.95</v>
       </c>
     </row>
@@ -12520,7 +12531,7 @@
       <c r="G514" s="7">
         <v>0</v>
       </c>
-      <c r="H514" s="19">
+      <c r="H514" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12566,7 +12577,7 @@
       <c r="G516" s="7">
         <v>230.12</v>
       </c>
-      <c r="H516" s="19">
+      <c r="H516" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12612,7 +12623,7 @@
       <c r="G518" s="7">
         <v>0</v>
       </c>
-      <c r="H518" s="19">
+      <c r="H518" s="7">
         <v>59.13</v>
       </c>
     </row>
@@ -12658,7 +12669,7 @@
       <c r="G520" s="7">
         <v>0</v>
       </c>
-      <c r="H520" s="19">
+      <c r="H520" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12704,7 +12715,7 @@
       <c r="G522" s="7">
         <v>201.9</v>
       </c>
-      <c r="H522" s="19">
+      <c r="H522" s="7">
         <v>3762.22</v>
       </c>
     </row>
@@ -12750,7 +12761,7 @@
       <c r="G524" s="7">
         <v>0</v>
       </c>
-      <c r="H524" s="19">
+      <c r="H524" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12796,7 +12807,7 @@
       <c r="G526" s="7">
         <v>0</v>
       </c>
-      <c r="H526" s="19">
+      <c r="H526" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12842,7 +12853,7 @@
       <c r="G528" s="7">
         <v>0</v>
       </c>
-      <c r="H528" s="19">
+      <c r="H528" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12888,7 +12899,7 @@
       <c r="G530" s="7">
         <v>0</v>
       </c>
-      <c r="H530" s="19">
+      <c r="H530" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12934,7 +12945,7 @@
       <c r="G532" s="7">
         <v>7248.66</v>
       </c>
-      <c r="H532" s="19">
+      <c r="H532" s="7">
         <v>2352.44</v>
       </c>
     </row>
@@ -12980,7 +12991,7 @@
       <c r="G534" s="7">
         <v>0</v>
       </c>
-      <c r="H534" s="19">
+      <c r="H534" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13026,7 +13037,7 @@
       <c r="G536" s="7">
         <v>27.6</v>
       </c>
-      <c r="H536" s="19">
+      <c r="H536" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13072,7 +13083,7 @@
       <c r="G538" s="7">
         <v>0</v>
       </c>
-      <c r="H538" s="19">
+      <c r="H538" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13118,7 +13129,7 @@
       <c r="G540" s="7">
         <v>0</v>
       </c>
-      <c r="H540" s="19">
+      <c r="H540" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13164,7 +13175,7 @@
       <c r="G542" s="7">
         <v>6255.8</v>
       </c>
-      <c r="H542" s="19">
+      <c r="H542" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13210,7 +13221,7 @@
       <c r="G544" s="7">
         <v>0</v>
       </c>
-      <c r="H544" s="19">
+      <c r="H544" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13256,7 +13267,7 @@
       <c r="G546" s="7">
         <v>0</v>
       </c>
-      <c r="H546" s="19">
+      <c r="H546" s="7">
         <v>6.99</v>
       </c>
     </row>
@@ -13302,7 +13313,7 @@
       <c r="G548" s="7">
         <v>0</v>
       </c>
-      <c r="H548" s="19">
+      <c r="H548" s="7">
         <v>1254.21</v>
       </c>
     </row>
@@ -13348,7 +13359,7 @@
       <c r="G550" s="7">
         <v>0</v>
       </c>
-      <c r="H550" s="19">
+      <c r="H550" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13394,7 +13405,7 @@
       <c r="G552" s="7">
         <v>7015.16</v>
       </c>
-      <c r="H552" s="19">
+      <c r="H552" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13440,7 +13451,7 @@
       <c r="G554" s="7">
         <v>0</v>
       </c>
-      <c r="H554" s="19">
+      <c r="H554" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13486,7 +13497,7 @@
       <c r="G556" s="7">
         <v>873.38</v>
       </c>
-      <c r="H556" s="19">
+      <c r="H556" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13532,7 +13543,7 @@
       <c r="G558" s="7">
         <v>0</v>
       </c>
-      <c r="H558" s="19">
+      <c r="H558" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13578,7 +13589,7 @@
       <c r="G560" s="7">
         <v>0</v>
       </c>
-      <c r="H560" s="19">
+      <c r="H560" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13624,7 +13635,7 @@
       <c r="G562" s="7">
         <v>1351.65</v>
       </c>
-      <c r="H562" s="19">
+      <c r="H562" s="7">
         <v>240.89999999999998</v>
       </c>
     </row>
@@ -13670,7 +13681,7 @@
       <c r="G564" s="7">
         <v>0</v>
       </c>
-      <c r="H564" s="19">
+      <c r="H564" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13716,7 +13727,7 @@
       <c r="G566" s="7">
         <v>0</v>
       </c>
-      <c r="H566" s="19">
+      <c r="H566" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13762,7 +13773,7 @@
       <c r="G568" s="7">
         <v>0</v>
       </c>
-      <c r="H568" s="19">
+      <c r="H568" s="7">
         <v>908.9</v>
       </c>
     </row>
@@ -13808,7 +13819,7 @@
       <c r="G570" s="7">
         <v>0</v>
       </c>
-      <c r="H570" s="19">
+      <c r="H570" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13854,7 +13865,7 @@
       <c r="G572" s="7">
         <v>1880.07</v>
       </c>
-      <c r="H572" s="19">
+      <c r="H572" s="7">
         <v>324.39999999999998</v>
       </c>
     </row>
@@ -13900,7 +13911,7 @@
       <c r="G574" s="7">
         <v>0</v>
       </c>
-      <c r="H574" s="19">
+      <c r="H574" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13946,7 +13957,7 @@
       <c r="G576" s="7">
         <v>25</v>
       </c>
-      <c r="H576" s="19">
+      <c r="H576" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13992,7 +14003,7 @@
       <c r="G578" s="7">
         <v>0</v>
       </c>
-      <c r="H578" s="19">
+      <c r="H578" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14038,7 +14049,7 @@
       <c r="G580" s="7">
         <v>0</v>
       </c>
-      <c r="H580" s="19">
+      <c r="H580" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14084,7 +14095,7 @@
       <c r="G582" s="7">
         <v>0</v>
       </c>
-      <c r="H582" s="19">
+      <c r="H582" s="7">
         <v>20778.5</v>
       </c>
     </row>
@@ -14130,7 +14141,7 @@
       <c r="G584" s="7">
         <v>0</v>
       </c>
-      <c r="H584" s="19">
+      <c r="H584" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14176,7 +14187,7 @@
       <c r="G586" s="7">
         <v>77.8</v>
       </c>
-      <c r="H586" s="19">
+      <c r="H586" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14222,7 +14233,7 @@
       <c r="G588" s="7">
         <v>0</v>
       </c>
-      <c r="H588" s="19">
+      <c r="H588" s="7">
         <v>205.4</v>
       </c>
     </row>
@@ -14268,7 +14279,7 @@
       <c r="G590" s="7">
         <v>0</v>
       </c>
-      <c r="H590" s="19">
+      <c r="H590" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14314,7 +14325,7 @@
       <c r="G592" s="7">
         <v>769.99</v>
       </c>
-      <c r="H592" s="19">
+      <c r="H592" s="7">
         <v>51.05</v>
       </c>
     </row>
@@ -14360,7 +14371,7 @@
       <c r="G594" s="7">
         <v>0</v>
       </c>
-      <c r="H594" s="19">
+      <c r="H594" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14406,7 +14417,7 @@
       <c r="G596" s="7">
         <v>201</v>
       </c>
-      <c r="H596" s="19">
+      <c r="H596" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14452,7 +14463,7 @@
       <c r="G598" s="7">
         <v>0</v>
       </c>
-      <c r="H598" s="19">
+      <c r="H598" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14498,7 +14509,7 @@
       <c r="G600" s="7">
         <v>0</v>
       </c>
-      <c r="H600" s="19">
+      <c r="H600" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14544,7 +14555,7 @@
       <c r="G602" s="7">
         <v>5916.42</v>
       </c>
-      <c r="H602" s="19">
+      <c r="H602" s="7">
         <v>26.7</v>
       </c>
     </row>
@@ -14590,7 +14601,7 @@
       <c r="G604" s="7">
         <v>0</v>
       </c>
-      <c r="H604" s="19">
+      <c r="H604" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14636,7 +14647,7 @@
       <c r="G606" s="7">
         <v>0</v>
       </c>
-      <c r="H606" s="19">
+      <c r="H606" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14682,7 +14693,7 @@
       <c r="G608" s="7">
         <v>0</v>
       </c>
-      <c r="H608" s="19">
+      <c r="H608" s="7">
         <v>5560</v>
       </c>
     </row>
@@ -14728,7 +14739,7 @@
       <c r="G610" s="7">
         <v>0</v>
       </c>
-      <c r="H610" s="19">
+      <c r="H610" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14774,7 +14785,7 @@
       <c r="G612" s="7">
         <v>4376.4399999999996</v>
       </c>
-      <c r="H612" s="19">
+      <c r="H612" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14820,7 +14831,7 @@
       <c r="G614" s="7">
         <v>0</v>
       </c>
-      <c r="H614" s="19">
+      <c r="H614" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14866,7 +14877,7 @@
       <c r="G616" s="7">
         <v>1517.15</v>
       </c>
-      <c r="H616" s="19">
+      <c r="H616" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14912,7 +14923,7 @@
       <c r="G618" s="7">
         <v>0</v>
       </c>
-      <c r="H618" s="19">
+      <c r="H618" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14958,7 +14969,7 @@
       <c r="G620" s="7">
         <v>0</v>
       </c>
-      <c r="H620" s="19">
+      <c r="H620" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15004,7 +15015,7 @@
       <c r="G622" s="7">
         <v>7670.59</v>
       </c>
-      <c r="H622" s="19">
+      <c r="H622" s="7">
         <v>122.6</v>
       </c>
     </row>
@@ -15050,7 +15061,7 @@
       <c r="G624" s="7">
         <v>0</v>
       </c>
-      <c r="H624" s="19">
+      <c r="H624" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15096,7 +15107,7 @@
       <c r="G626" s="7">
         <v>11.5</v>
       </c>
-      <c r="H626" s="19">
+      <c r="H626" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15142,7 +15153,7 @@
       <c r="G628" s="7">
         <v>0</v>
       </c>
-      <c r="H628" s="19">
+      <c r="H628" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15188,7 +15199,7 @@
       <c r="G630" s="7">
         <v>0</v>
       </c>
-      <c r="H630" s="19">
+      <c r="H630" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15234,7 +15245,7 @@
       <c r="G632" s="7">
         <v>11052.92</v>
       </c>
-      <c r="H632" s="19">
+      <c r="H632" s="7">
         <v>895.9</v>
       </c>
     </row>
@@ -15280,7 +15291,7 @@
       <c r="G634" s="7">
         <v>0</v>
       </c>
-      <c r="H634" s="19">
+      <c r="H634" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15326,7 +15337,7 @@
       <c r="G636" s="7">
         <v>0</v>
       </c>
-      <c r="H636" s="19">
+      <c r="H636" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15372,7 +15383,7 @@
       <c r="G638" s="7">
         <v>0</v>
       </c>
-      <c r="H638" s="19">
+      <c r="H638" s="7">
         <v>3618.6</v>
       </c>
     </row>
@@ -15418,7 +15429,7 @@
       <c r="G640" s="7">
         <v>0</v>
       </c>
-      <c r="H640" s="19">
+      <c r="H640" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15464,7 +15475,7 @@
       <c r="G642" s="7">
         <v>4455.68</v>
       </c>
-      <c r="H642" s="19">
+      <c r="H642" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15510,7 +15521,7 @@
       <c r="G644" s="7">
         <v>0</v>
       </c>
-      <c r="H644" s="19">
+      <c r="H644" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15556,7 +15567,7 @@
       <c r="G646" s="7">
         <v>72.459999999999994</v>
       </c>
-      <c r="H646" s="19">
+      <c r="H646" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15602,7 +15613,7 @@
       <c r="G648" s="7">
         <v>0</v>
       </c>
-      <c r="H648" s="19">
+      <c r="H648" s="7">
         <v>360.55</v>
       </c>
     </row>
@@ -15648,7 +15659,7 @@
       <c r="G650" s="7">
         <v>0</v>
       </c>
-      <c r="H650" s="19">
+      <c r="H650" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15694,7 +15705,7 @@
       <c r="G652" s="7">
         <v>4178.54</v>
       </c>
-      <c r="H652" s="19">
+      <c r="H652" s="7">
         <v>713.28</v>
       </c>
     </row>
@@ -15740,7 +15751,7 @@
       <c r="G654" s="7">
         <v>0</v>
       </c>
-      <c r="H654" s="19">
+      <c r="H654" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15786,7 +15797,7 @@
       <c r="G656" s="7">
         <v>654.79999999999995</v>
       </c>
-      <c r="H656" s="19">
+      <c r="H656" s="7">
         <v>479</v>
       </c>
     </row>
@@ -15832,7 +15843,7 @@
       <c r="G658" s="7">
         <v>0</v>
       </c>
-      <c r="H658" s="19">
+      <c r="H658" s="7">
         <v>1718.47</v>
       </c>
     </row>
@@ -15878,7 +15889,7 @@
       <c r="G660" s="7">
         <v>0</v>
       </c>
-      <c r="H660" s="19">
+      <c r="H660" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15924,7 +15935,7 @@
       <c r="G662" s="7">
         <v>264.33999999999997</v>
       </c>
-      <c r="H662" s="19">
+      <c r="H662" s="7">
         <v>617.34</v>
       </c>
     </row>
@@ -15970,7 +15981,7 @@
       <c r="G664" s="7">
         <v>0</v>
       </c>
-      <c r="H664" s="19">
+      <c r="H664" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16016,7 +16027,7 @@
       <c r="G666" s="7">
         <v>172.6</v>
       </c>
-      <c r="H666" s="19">
+      <c r="H666" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16062,7 +16073,7 @@
       <c r="G668" s="7">
         <v>0</v>
       </c>
-      <c r="H668" s="19">
+      <c r="H668" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16108,7 +16119,7 @@
       <c r="G670" s="7">
         <v>0</v>
       </c>
-      <c r="H670" s="19">
+      <c r="H670" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16154,7 +16165,7 @@
       <c r="G672" s="7">
         <v>1094</v>
       </c>
-      <c r="H672" s="19">
+      <c r="H672" s="7">
         <v>20.95</v>
       </c>
     </row>
@@ -16200,7 +16211,7 @@
       <c r="G674" s="7">
         <v>0</v>
       </c>
-      <c r="H674" s="19">
+      <c r="H674" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16246,7 +16257,7 @@
       <c r="G676" s="7">
         <v>222.52</v>
       </c>
-      <c r="H676" s="19">
+      <c r="H676" s="7">
         <v>7.6</v>
       </c>
     </row>
@@ -16292,7 +16303,7 @@
       <c r="G678" s="7">
         <v>0</v>
       </c>
-      <c r="H678" s="19">
+      <c r="H678" s="7">
         <v>59.13</v>
       </c>
     </row>
@@ -16338,7 +16349,7 @@
       <c r="G680" s="7">
         <v>0</v>
       </c>
-      <c r="H680" s="19">
+      <c r="H680" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16384,7 +16395,7 @@
       <c r="G682" s="7">
         <v>3370.2200000000003</v>
       </c>
-      <c r="H682" s="19">
+      <c r="H682" s="7">
         <v>593.9</v>
       </c>
     </row>
@@ -16430,7 +16441,7 @@
       <c r="G684" s="7">
         <v>0</v>
       </c>
-      <c r="H684" s="19">
+      <c r="H684" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16476,7 +16487,7 @@
       <c r="G686" s="7">
         <v>0</v>
       </c>
-      <c r="H686" s="19">
+      <c r="H686" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16522,7 +16533,7 @@
       <c r="G688" s="7">
         <v>0</v>
       </c>
-      <c r="H688" s="19">
+      <c r="H688" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16568,7 +16579,7 @@
       <c r="G690" s="7">
         <v>0</v>
       </c>
-      <c r="H690" s="19">
+      <c r="H690" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16614,7 +16625,7 @@
       <c r="G692" s="7">
         <v>7261.16</v>
       </c>
-      <c r="H692" s="19">
+      <c r="H692" s="7">
         <v>2352.44</v>
       </c>
     </row>
@@ -16660,7 +16671,7 @@
       <c r="G694" s="7">
         <v>0</v>
       </c>
-      <c r="H694" s="19">
+      <c r="H694" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16706,7 +16717,7 @@
       <c r="G696" s="7">
         <v>27.6</v>
       </c>
-      <c r="H696" s="19">
+      <c r="H696" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16752,7 +16763,7 @@
       <c r="G698" s="7">
         <v>0</v>
       </c>
-      <c r="H698" s="19">
+      <c r="H698" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16798,7 +16809,7 @@
       <c r="G700" s="7">
         <v>0</v>
       </c>
-      <c r="H700" s="19">
+      <c r="H700" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16844,7 +16855,7 @@
       <c r="G702" s="7">
         <v>6264.3</v>
       </c>
-      <c r="H702" s="19">
+      <c r="H702" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16890,7 +16901,7 @@
       <c r="G704" s="7">
         <v>0</v>
       </c>
-      <c r="H704" s="19">
+      <c r="H704" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16936,7 +16947,7 @@
       <c r="G706" s="7">
         <v>0</v>
       </c>
-      <c r="H706" s="19">
+      <c r="H706" s="7">
         <v>6.99</v>
       </c>
     </row>
@@ -16982,7 +16993,7 @@
       <c r="G708" s="7">
         <v>0</v>
       </c>
-      <c r="H708" s="19">
+      <c r="H708" s="7">
         <v>1254.21</v>
       </c>
     </row>
@@ -17028,7 +17039,7 @@
       <c r="G710" s="7">
         <v>0</v>
       </c>
-      <c r="H710" s="19">
+      <c r="H710" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17074,7 +17085,7 @@
       <c r="G712" s="7">
         <v>7015.16</v>
       </c>
-      <c r="H712" s="19">
+      <c r="H712" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17120,7 +17131,7 @@
       <c r="G714" s="7">
         <v>0</v>
       </c>
-      <c r="H714" s="19">
+      <c r="H714" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17166,7 +17177,7 @@
       <c r="G716" s="7">
         <v>920.9</v>
       </c>
-      <c r="H716" s="19">
+      <c r="H716" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17212,7 +17223,7 @@
       <c r="G718" s="7">
         <v>0</v>
       </c>
-      <c r="H718" s="19">
+      <c r="H718" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17258,7 +17269,7 @@
       <c r="G720" s="7">
         <v>0</v>
       </c>
-      <c r="H720" s="19">
+      <c r="H720" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17304,7 +17315,7 @@
       <c r="G722" s="7">
         <v>1348.75</v>
       </c>
-      <c r="H722" s="19">
+      <c r="H722" s="7">
         <v>240.9</v>
       </c>
     </row>
@@ -17350,7 +17361,7 @@
       <c r="G724" s="7">
         <v>0</v>
       </c>
-      <c r="H724" s="19">
+      <c r="H724" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17396,7 +17407,7 @@
       <c r="G726" s="7">
         <v>0</v>
       </c>
-      <c r="H726" s="19">
+      <c r="H726" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17442,7 +17453,7 @@
       <c r="G728" s="7">
         <v>0</v>
       </c>
-      <c r="H728" s="19">
+      <c r="H728" s="7">
         <v>908.9</v>
       </c>
     </row>
@@ -17488,7 +17499,7 @@
       <c r="G730" s="7">
         <v>0</v>
       </c>
-      <c r="H730" s="19">
+      <c r="H730" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17534,7 +17545,7 @@
       <c r="G732" s="7">
         <v>1880.07</v>
       </c>
-      <c r="H732" s="19">
+      <c r="H732" s="7">
         <v>324.39999999999998</v>
       </c>
     </row>
@@ -17580,7 +17591,7 @@
       <c r="G734" s="7">
         <v>0</v>
       </c>
-      <c r="H734" s="19">
+      <c r="H734" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17626,7 +17637,7 @@
       <c r="G736" s="7">
         <v>25</v>
       </c>
-      <c r="H736" s="19">
+      <c r="H736" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17672,7 +17683,7 @@
       <c r="G738" s="7">
         <v>0</v>
       </c>
-      <c r="H738" s="19">
+      <c r="H738" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17718,7 +17729,7 @@
       <c r="G740" s="7">
         <v>0</v>
       </c>
-      <c r="H740" s="19">
+      <c r="H740" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17764,7 +17775,7 @@
       <c r="G742" s="7">
         <v>0</v>
       </c>
-      <c r="H742" s="19">
+      <c r="H742" s="7">
         <v>21035.692999999999</v>
       </c>
     </row>
@@ -17810,7 +17821,7 @@
       <c r="G744" s="7">
         <v>0</v>
       </c>
-      <c r="H744" s="19">
+      <c r="H744" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17856,7 +17867,7 @@
       <c r="G746" s="7">
         <v>77.8</v>
       </c>
-      <c r="H746" s="19">
+      <c r="H746" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17902,7 +17913,7 @@
       <c r="G748" s="7">
         <v>0</v>
       </c>
-      <c r="H748" s="19">
+      <c r="H748" s="7">
         <v>205.4</v>
       </c>
     </row>
@@ -17948,7 +17959,7 @@
       <c r="G750" s="7">
         <v>0</v>
       </c>
-      <c r="H750" s="19">
+      <c r="H750" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17994,7 +18005,7 @@
       <c r="G752" s="7">
         <v>855.91</v>
       </c>
-      <c r="H752" s="19">
+      <c r="H752" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18040,7 +18051,7 @@
       <c r="G754" s="7">
         <v>0</v>
       </c>
-      <c r="H754" s="19">
+      <c r="H754" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18086,7 +18097,7 @@
       <c r="G756" s="7">
         <v>164</v>
       </c>
-      <c r="H756" s="19">
+      <c r="H756" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18132,7 +18143,7 @@
       <c r="G758" s="7">
         <v>0</v>
       </c>
-      <c r="H758" s="19">
+      <c r="H758" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18178,7 +18189,7 @@
       <c r="G760" s="7">
         <v>0</v>
       </c>
-      <c r="H760" s="19">
+      <c r="H760" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18224,7 +18235,7 @@
       <c r="G762" s="7">
         <v>5938.45</v>
       </c>
-      <c r="H762" s="19">
+      <c r="H762" s="7">
         <v>378.7</v>
       </c>
     </row>
@@ -18270,7 +18281,7 @@
       <c r="G764" s="7">
         <v>0</v>
       </c>
-      <c r="H764" s="19">
+      <c r="H764" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18316,7 +18327,7 @@
       <c r="G766" s="7">
         <v>0</v>
       </c>
-      <c r="H766" s="19">
+      <c r="H766" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18362,7 +18373,7 @@
       <c r="G768" s="7">
         <v>0</v>
       </c>
-      <c r="H768" s="19">
+      <c r="H768" s="7">
         <v>5560</v>
       </c>
     </row>
@@ -18408,7 +18419,7 @@
       <c r="G770" s="7">
         <v>0</v>
       </c>
-      <c r="H770" s="19">
+      <c r="H770" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18454,7 +18465,7 @@
       <c r="G772" s="7">
         <v>4376.4399999999996</v>
       </c>
-      <c r="H772" s="19">
+      <c r="H772" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18500,7 +18511,7 @@
       <c r="G774" s="7">
         <v>0</v>
       </c>
-      <c r="H774" s="19">
+      <c r="H774" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18546,7 +18557,7 @@
       <c r="G776" s="7">
         <v>1517.15</v>
       </c>
-      <c r="H776" s="19">
+      <c r="H776" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18592,7 +18603,7 @@
       <c r="G778" s="7">
         <v>0</v>
       </c>
-      <c r="H778" s="19">
+      <c r="H778" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18638,7 +18649,7 @@
       <c r="G780" s="7">
         <v>0</v>
       </c>
-      <c r="H780" s="19">
+      <c r="H780" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18684,7 +18695,7 @@
       <c r="G782" s="7">
         <v>7670.59</v>
       </c>
-      <c r="H782" s="19">
+      <c r="H782" s="7">
         <v>122.6</v>
       </c>
     </row>
@@ -18730,7 +18741,7 @@
       <c r="G784" s="7">
         <v>0</v>
       </c>
-      <c r="H784" s="19">
+      <c r="H784" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18776,7 +18787,7 @@
       <c r="G786" s="7">
         <v>11.5</v>
       </c>
-      <c r="H786" s="19">
+      <c r="H786" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18822,7 +18833,7 @@
       <c r="G788" s="7">
         <v>0</v>
       </c>
-      <c r="H788" s="19">
+      <c r="H788" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18868,7 +18879,7 @@
       <c r="G790" s="7">
         <v>0</v>
       </c>
-      <c r="H790" s="19">
+      <c r="H790" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18914,7 +18925,7 @@
       <c r="G792" s="7">
         <v>11056.42</v>
       </c>
-      <c r="H792" s="19">
+      <c r="H792" s="7">
         <v>895.9</v>
       </c>
     </row>
@@ -18960,7 +18971,7 @@
       <c r="G794" s="7">
         <v>0</v>
       </c>
-      <c r="H794" s="19">
+      <c r="H794" s="7">
         <v>0</v>
       </c>
     </row>
@@ -19006,7 +19017,7 @@
       <c r="G796" s="7">
         <v>0</v>
       </c>
-      <c r="H796" s="19">
+      <c r="H796" s="7">
         <v>0</v>
       </c>
     </row>
@@ -19052,7 +19063,7 @@
       <c r="G798" s="7">
         <v>0</v>
       </c>
-      <c r="H798" s="19">
+      <c r="H798" s="7">
         <v>3618.6</v>
       </c>
     </row>
@@ -19098,7 +19109,7 @@
       <c r="G800" s="7">
         <v>0</v>
       </c>
-      <c r="H800" s="19">
+      <c r="H800" s="7">
         <v>0</v>
       </c>
     </row>
@@ -19144,7 +19155,7 @@
       <c r="G802" s="7">
         <v>4455.7000000000007</v>
       </c>
-      <c r="H802" s="19">
+      <c r="H802" s="7">
         <v>0</v>
       </c>
     </row>
@@ -19190,7 +19201,7 @@
       <c r="G804" s="7">
         <v>0</v>
       </c>
-      <c r="H804" s="19">
+      <c r="H804" s="7">
         <v>0</v>
       </c>
     </row>
@@ -19236,7 +19247,7 @@
       <c r="G806" s="7">
         <v>72.959999999999994</v>
       </c>
-      <c r="H806" s="19">
+      <c r="H806" s="7">
         <v>0</v>
       </c>
     </row>
@@ -19282,7 +19293,7 @@
       <c r="G808" s="7">
         <v>0</v>
       </c>
-      <c r="H808" s="19">
+      <c r="H808" s="7">
         <v>358.65</v>
       </c>
     </row>
@@ -19328,7 +19339,7 @@
       <c r="G810" s="7">
         <v>0</v>
       </c>
-      <c r="H810" s="19">
+      <c r="H810" s="7">
         <v>0</v>
       </c>
     </row>
@@ -19374,7 +19385,7 @@
       <c r="G812" s="7">
         <v>4122.04</v>
       </c>
-      <c r="H812" s="19">
+      <c r="H812" s="7">
         <v>678.28</v>
       </c>
     </row>
@@ -19420,7 +19431,7 @@
       <c r="G814" s="7">
         <v>0</v>
       </c>
-      <c r="H814" s="19">
+      <c r="H814" s="7">
         <v>0</v>
       </c>
     </row>
@@ -19466,7 +19477,7 @@
       <c r="G816" s="7">
         <v>453.38</v>
       </c>
-      <c r="H816" s="19">
+      <c r="H816" s="7">
         <v>253.97</v>
       </c>
     </row>
@@ -19512,7 +19523,7 @@
       <c r="G818" s="7">
         <v>0</v>
       </c>
-      <c r="H818" s="19">
+      <c r="H818" s="7">
         <v>1270.32</v>
       </c>
     </row>
@@ -19558,7 +19569,7 @@
       <c r="G820" s="7">
         <v>0</v>
       </c>
-      <c r="H820" s="19">
+      <c r="H820" s="7">
         <v>0</v>
       </c>
     </row>
@@ -19604,7 +19615,7 @@
       <c r="G822" s="7">
         <v>272.33999999999997</v>
       </c>
-      <c r="H822" s="19">
+      <c r="H822" s="7">
         <v>665.34</v>
       </c>
     </row>
@@ -19650,7 +19661,7 @@
       <c r="G824" s="7">
         <v>0</v>
       </c>
-      <c r="H824" s="19">
+      <c r="H824" s="7">
         <v>0</v>
       </c>
     </row>
@@ -19696,7 +19707,7 @@
       <c r="G826" s="7">
         <v>172.7</v>
       </c>
-      <c r="H826" s="19">
+      <c r="H826" s="7">
         <v>0</v>
       </c>
     </row>
@@ -19742,7 +19753,7 @@
       <c r="G828" s="7">
         <v>0</v>
       </c>
-      <c r="H828" s="19">
+      <c r="H828" s="7">
         <v>0</v>
       </c>
     </row>
@@ -19788,7 +19799,7 @@
       <c r="G830" s="7">
         <v>0</v>
       </c>
-      <c r="H830" s="19">
+      <c r="H830" s="7">
         <v>0</v>
       </c>
     </row>
@@ -19834,7 +19845,7 @@
       <c r="G832" s="7">
         <v>1446.75</v>
       </c>
-      <c r="H832" s="19">
+      <c r="H832" s="7">
         <v>38.25</v>
       </c>
     </row>
@@ -19880,7 +19891,7 @@
       <c r="G834" s="7">
         <v>0</v>
       </c>
-      <c r="H834" s="19">
+      <c r="H834" s="7">
         <v>0</v>
       </c>
     </row>
@@ -19926,7 +19937,7 @@
       <c r="G836" s="7">
         <v>222.52</v>
       </c>
-      <c r="H836" s="19">
+      <c r="H836" s="7">
         <v>7.6</v>
       </c>
     </row>
@@ -19972,7 +19983,7 @@
       <c r="G838" s="7">
         <v>0</v>
       </c>
-      <c r="H838" s="19">
+      <c r="H838" s="7">
         <v>59.13</v>
       </c>
     </row>
@@ -20018,7 +20029,7 @@
       <c r="G840" s="7">
         <v>0</v>
       </c>
-      <c r="H840" s="19">
+      <c r="H840" s="7">
         <v>0</v>
       </c>
     </row>
@@ -20064,7 +20075,7 @@
       <c r="G842" s="7">
         <v>3316.2000000000003</v>
       </c>
-      <c r="H842" s="19">
+      <c r="H842" s="7">
         <v>593.9</v>
       </c>
     </row>
@@ -20110,7 +20121,7 @@
       <c r="G844" s="7">
         <v>0</v>
       </c>
-      <c r="H844" s="19">
+      <c r="H844" s="7">
         <v>0</v>
       </c>
     </row>
@@ -20156,7 +20167,7 @@
       <c r="G846" s="7">
         <v>0</v>
       </c>
-      <c r="H846" s="19">
+      <c r="H846" s="7">
         <v>0</v>
       </c>
     </row>
@@ -20202,7 +20213,7 @@
       <c r="G848" s="7">
         <v>0</v>
       </c>
-      <c r="H848" s="19">
+      <c r="H848" s="7">
         <v>0</v>
       </c>
     </row>
@@ -20248,7 +20259,7 @@
       <c r="G850" s="7">
         <v>0</v>
       </c>
-      <c r="H850" s="19">
+      <c r="H850" s="7">
         <v>0</v>
       </c>
     </row>
@@ -20294,7 +20305,7 @@
       <c r="G852" s="7">
         <v>8247.2000000000007</v>
       </c>
-      <c r="H852" s="19">
+      <c r="H852" s="7">
         <v>1150.2</v>
       </c>
     </row>
@@ -20340,7 +20351,7 @@
       <c r="G854" s="7">
         <v>0</v>
       </c>
-      <c r="H854" s="19">
+      <c r="H854" s="7">
         <v>0</v>
       </c>
     </row>
@@ -20386,7 +20397,7 @@
       <c r="G856" s="7">
         <v>27.6</v>
       </c>
-      <c r="H856" s="19">
+      <c r="H856" s="7">
         <v>0</v>
       </c>
     </row>
@@ -20432,7 +20443,7 @@
       <c r="G858" s="7">
         <v>0</v>
       </c>
-      <c r="H858" s="19">
+      <c r="H858" s="7">
         <v>1129.78</v>
       </c>
     </row>
@@ -20478,7 +20489,7 @@
       <c r="G860" s="7">
         <v>0</v>
       </c>
-      <c r="H860" s="19">
+      <c r="H860" s="7">
         <v>0</v>
       </c>
     </row>
@@ -20524,7 +20535,7 @@
       <c r="G862" s="7">
         <v>6065.1</v>
       </c>
-      <c r="H862" s="19">
+      <c r="H862" s="7">
         <v>0</v>
       </c>
     </row>
@@ -20570,7 +20581,7 @@
       <c r="G864" s="7">
         <v>0</v>
       </c>
-      <c r="H864" s="19">
+      <c r="H864" s="7">
         <v>0</v>
       </c>
     </row>
@@ -20616,7 +20627,7 @@
       <c r="G866" s="7">
         <v>0</v>
       </c>
-      <c r="H866" s="19">
+      <c r="H866" s="7">
         <v>6.36</v>
       </c>
     </row>
@@ -20662,7 +20673,7 @@
       <c r="G868" s="7">
         <v>0</v>
       </c>
-      <c r="H868" s="19">
+      <c r="H868" s="7">
         <v>1254.21</v>
       </c>
     </row>
@@ -20708,7 +20719,7 @@
       <c r="G870" s="7">
         <v>0</v>
       </c>
-      <c r="H870" s="19">
+      <c r="H870" s="7">
         <v>0</v>
       </c>
     </row>
@@ -20754,7 +20765,7 @@
       <c r="G872" s="7">
         <v>6788.2619999999997</v>
       </c>
-      <c r="H872" s="19">
+      <c r="H872" s="7">
         <v>0</v>
       </c>
     </row>
@@ -20800,7 +20811,7 @@
       <c r="G874" s="7">
         <v>0</v>
       </c>
-      <c r="H874" s="19">
+      <c r="H874" s="7">
         <v>0</v>
       </c>
     </row>
@@ -20846,7 +20857,7 @@
       <c r="G876" s="7">
         <v>293.7</v>
       </c>
-      <c r="H876" s="19">
+      <c r="H876" s="7">
         <v>0</v>
       </c>
     </row>
@@ -20892,7 +20903,7 @@
       <c r="G878" s="7">
         <v>0</v>
       </c>
-      <c r="H878" s="19">
+      <c r="H878" s="7">
         <v>0</v>
       </c>
     </row>
@@ -20938,7 +20949,7 @@
       <c r="G880" s="7">
         <v>0</v>
       </c>
-      <c r="H880" s="19">
+      <c r="H880" s="7">
         <v>0</v>
       </c>
     </row>
@@ -20984,7 +20995,7 @@
       <c r="G882" s="7">
         <v>4353.16</v>
       </c>
-      <c r="H882" s="19">
+      <c r="H882" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21030,7 +21041,7 @@
       <c r="G884" s="7">
         <v>0</v>
       </c>
-      <c r="H884" s="19">
+      <c r="H884" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21076,7 +21087,7 @@
       <c r="G886" s="7">
         <v>0</v>
       </c>
-      <c r="H886" s="19">
+      <c r="H886" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21122,7 +21133,7 @@
       <c r="G888" s="7">
         <v>0</v>
       </c>
-      <c r="H888" s="19">
+      <c r="H888" s="7">
         <v>908.9</v>
       </c>
     </row>
@@ -21168,7 +21179,7 @@
       <c r="G890" s="7">
         <v>0</v>
       </c>
-      <c r="H890" s="19">
+      <c r="H890" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21214,7 +21225,7 @@
       <c r="G892" s="7">
         <v>2684.61</v>
       </c>
-      <c r="H892" s="19">
+      <c r="H892" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21260,7 +21271,7 @@
       <c r="G894" s="7">
         <v>0</v>
       </c>
-      <c r="H894" s="19">
+      <c r="H894" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21306,7 +21317,7 @@
       <c r="G896" s="7">
         <v>25</v>
       </c>
-      <c r="H896" s="19">
+      <c r="H896" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21352,7 +21363,7 @@
       <c r="G898" s="7">
         <v>0</v>
       </c>
-      <c r="H898" s="19">
+      <c r="H898" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21398,7 +21409,7 @@
       <c r="G900" s="7">
         <v>0</v>
       </c>
-      <c r="H900" s="19">
+      <c r="H900" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21444,7 +21455,7 @@
       <c r="G902" s="7">
         <v>0</v>
       </c>
-      <c r="H902" s="19">
+      <c r="H902" s="7">
         <v>21035.692999999999</v>
       </c>
     </row>
@@ -21490,7 +21501,7 @@
       <c r="G904" s="7">
         <v>0</v>
       </c>
-      <c r="H904" s="19">
+      <c r="H904" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21536,7 +21547,7 @@
       <c r="G906" s="7">
         <v>77.8</v>
       </c>
-      <c r="H906" s="19">
+      <c r="H906" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21582,7 +21593,7 @@
       <c r="G908" s="7">
         <v>0</v>
       </c>
-      <c r="H908" s="19">
+      <c r="H908" s="7">
         <v>205.4</v>
       </c>
     </row>
@@ -21628,7 +21639,7 @@
       <c r="G910" s="7">
         <v>0</v>
       </c>
-      <c r="H910" s="19">
+      <c r="H910" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21674,7 +21685,7 @@
       <c r="G912" s="7">
         <v>1240.26</v>
       </c>
-      <c r="H912" s="19">
+      <c r="H912" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21720,7 +21731,7 @@
       <c r="G914" s="7">
         <v>0</v>
       </c>
-      <c r="H914" s="19">
+      <c r="H914" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21766,7 +21777,7 @@
       <c r="G916" s="7">
         <v>150</v>
       </c>
-      <c r="H916" s="19">
+      <c r="H916" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21812,7 +21823,7 @@
       <c r="G918" s="7">
         <v>0</v>
       </c>
-      <c r="H918" s="19">
+      <c r="H918" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21858,7 +21869,7 @@
       <c r="G920" s="7">
         <v>0</v>
       </c>
-      <c r="H920" s="19">
+      <c r="H920" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21904,7 +21915,7 @@
       <c r="G922" s="7">
         <v>6501.93</v>
       </c>
-      <c r="H922" s="19">
+      <c r="H922" s="7">
         <v>378.7</v>
       </c>
     </row>
@@ -21950,7 +21961,7 @@
       <c r="G924" s="7">
         <v>0</v>
       </c>
-      <c r="H924" s="19">
+      <c r="H924" s="7">
         <v>0</v>
       </c>
     </row>
@@ -21996,7 +22007,7 @@
       <c r="G926" s="7">
         <v>0</v>
       </c>
-      <c r="H926" s="19">
+      <c r="H926" s="7">
         <v>0</v>
       </c>
     </row>
@@ -22042,7 +22053,7 @@
       <c r="G928" s="7">
         <v>0</v>
       </c>
-      <c r="H928" s="19">
+      <c r="H928" s="7">
         <v>5560</v>
       </c>
     </row>
@@ -22088,7 +22099,7 @@
       <c r="G930" s="7">
         <v>0</v>
       </c>
-      <c r="H930" s="19">
+      <c r="H930" s="7">
         <v>0</v>
       </c>
     </row>
@@ -22134,7 +22145,7 @@
       <c r="G932" s="7">
         <v>4376.4399999999996</v>
       </c>
-      <c r="H932" s="19">
+      <c r="H932" s="7">
         <v>0</v>
       </c>
     </row>
@@ -22180,7 +22191,7 @@
       <c r="G934" s="7">
         <v>0</v>
       </c>
-      <c r="H934" s="19">
+      <c r="H934" s="7">
         <v>0</v>
       </c>
     </row>
@@ -22226,7 +22237,7 @@
       <c r="G936" s="7">
         <v>1517.15</v>
       </c>
-      <c r="H936" s="19">
+      <c r="H936" s="7">
         <v>0</v>
       </c>
     </row>
@@ -22272,7 +22283,7 @@
       <c r="G938" s="7">
         <v>0</v>
       </c>
-      <c r="H938" s="19">
+      <c r="H938" s="7">
         <v>0</v>
       </c>
     </row>
@@ -22318,7 +22329,7 @@
       <c r="G940" s="7">
         <v>0</v>
       </c>
-      <c r="H940" s="19">
+      <c r="H940" s="7">
         <v>0</v>
       </c>
     </row>
@@ -22364,7 +22375,7 @@
       <c r="G942" s="7">
         <v>7670.59</v>
       </c>
-      <c r="H942" s="19">
+      <c r="H942" s="7">
         <v>121.6</v>
       </c>
     </row>
@@ -22410,7 +22421,7 @@
       <c r="G944" s="7">
         <v>0</v>
       </c>
-      <c r="H944" s="19">
+      <c r="H944" s="7">
         <v>0</v>
       </c>
     </row>
@@ -22456,7 +22467,7 @@
       <c r="G946" s="7">
         <v>0</v>
       </c>
-      <c r="H946" s="19">
+      <c r="H946" s="7">
         <v>0</v>
       </c>
     </row>
@@ -22502,7 +22513,7 @@
       <c r="G948" s="7">
         <v>0</v>
       </c>
-      <c r="H948" s="19">
+      <c r="H948" s="7">
         <v>0</v>
       </c>
     </row>
@@ -22548,7 +22559,7 @@
       <c r="G950" s="7">
         <v>0</v>
       </c>
-      <c r="H950" s="19">
+      <c r="H950" s="7">
         <v>0</v>
       </c>
     </row>
@@ -22594,7 +22605,7 @@
       <c r="G952" s="7">
         <v>11134.4</v>
       </c>
-      <c r="H952" s="19">
+      <c r="H952" s="7">
         <v>985.4</v>
       </c>
     </row>
@@ -22640,7 +22651,7 @@
       <c r="G954" s="7">
         <v>0</v>
       </c>
-      <c r="H954" s="19">
+      <c r="H954" s="7">
         <v>0</v>
       </c>
     </row>
@@ -22686,7 +22697,7 @@
       <c r="G956" s="7">
         <v>0</v>
       </c>
-      <c r="H956" s="19">
+      <c r="H956" s="7">
         <v>0</v>
       </c>
     </row>
@@ -22732,7 +22743,7 @@
       <c r="G958" s="7">
         <v>0</v>
       </c>
-      <c r="H958" s="19">
+      <c r="H958" s="7">
         <v>3618.6</v>
       </c>
     </row>
@@ -22778,7 +22789,7 @@
       <c r="G960" s="7">
         <v>0</v>
       </c>
-      <c r="H960" s="19">
+      <c r="H960" s="7">
         <v>0</v>
       </c>
     </row>
@@ -22824,7 +22835,7 @@
       <c r="G962" s="7">
         <v>4497.6000000000004</v>
       </c>
-      <c r="H962" s="19">
+      <c r="H962" s="7">
         <v>0</v>
       </c>
     </row>
